--- a/Migrated_Snapshot.xlsx
+++ b/Migrated_Snapshot.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -66,21 +66,36 @@
     <t>2 - High</t>
   </si>
   <si>
+    <t>In Process</t>
+  </si>
+  <si>
+    <t>issue after R1421 - system still reports, that user is processing PO</t>
+  </si>
+  <si>
+    <t>INC44198641</t>
+  </si>
+  <si>
+    <t>4 - Low</t>
+  </si>
+  <si>
     <t>Confirmed_Closed</t>
   </si>
   <si>
-    <t>issue after R1421 - system still reports, that user is processing PO</t>
-  </si>
-  <si>
-    <t>INC44198641</t>
-  </si>
-  <si>
-    <t>4 - Low</t>
-  </si>
-  <si>
     <t>VIM_close the process and move documents to "My Completed" tab</t>
   </si>
   <si>
+    <t>INC44247780</t>
+  </si>
+  <si>
+    <t>Cífka, Zdeněk</t>
+  </si>
+  <si>
+    <t>3 - Medium</t>
+  </si>
+  <si>
+    <t>S4P / 3003 - Payment block Z is automatically entered in RD documents after making any change through the transaction FBD3</t>
+  </si>
+  <si>
     <t>INC44276638</t>
   </si>
   <si>
@@ -90,9 +105,6 @@
     <t>Foghis, Loredana Daniela</t>
   </si>
   <si>
-    <t>3 - Medium</t>
-  </si>
-  <si>
     <t>cannot approve doc ID 26179</t>
   </si>
   <si>
@@ -105,6 +117,18 @@
     <t>Document approval not in my inbox</t>
   </si>
   <si>
+    <t>INC44320339</t>
+  </si>
+  <si>
+    <t>SMO DK</t>
+  </si>
+  <si>
+    <t>Piedade, Pedro</t>
+  </si>
+  <si>
+    <t>NPO Credit notes not able to post</t>
+  </si>
+  <si>
     <t>INC44335466</t>
   </si>
   <si>
@@ -138,9 +162,6 @@
     <t>V, Anand</t>
   </si>
   <si>
-    <t>In Process</t>
-  </si>
-  <si>
     <t>#HC VIM OCR Access Required</t>
   </si>
   <si>
@@ -172,6 +193,57 @@
   </si>
   <si>
     <t xml:space="preserve">Approval cannot be started </t>
+  </si>
+  <si>
+    <t>INC44345935</t>
+  </si>
+  <si>
+    <t>VIM_DP 16243 - close the process</t>
+  </si>
+  <si>
+    <t>INC44345961</t>
+  </si>
+  <si>
+    <t>Customs invoices approval did not start, even though the Approvers are set in the SATtable</t>
+  </si>
+  <si>
+    <t>INC44346255</t>
+  </si>
+  <si>
+    <t>Please remove payment blocks, items cannot be paid</t>
+  </si>
+  <si>
+    <t>INC44351758</t>
+  </si>
+  <si>
+    <t>PDF Invoices don't appear in VIM Documents</t>
+  </si>
+  <si>
+    <t>INC44352220</t>
+  </si>
+  <si>
+    <t>Document is with error in Analytics but I can't see it in Workplace</t>
+  </si>
+  <si>
+    <t>INC44352828</t>
+  </si>
+  <si>
+    <t>Helici, Lucica</t>
+  </si>
+  <si>
+    <t>PDF not available for invoice to be approved</t>
+  </si>
+  <si>
+    <t>INC44354118</t>
+  </si>
+  <si>
+    <t>Add one supplier into VIM VAUD table</t>
+  </si>
+  <si>
+    <t>INC44355232</t>
+  </si>
+  <si>
+    <t>VIM_close process and remove R block</t>
   </si>
 </sst>
 </file>
@@ -244,144 +316,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="2.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.53515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.9296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.68359375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="19.13671875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.5546875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.36328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="14.28125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.07421875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="55.921875" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0"/>
-      <c r="B2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C2" s="0"/>
-      <c r="D2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E2" t="n" s="2">
-        <v>45978.848344907405</v>
-      </c>
-      <c r="F2" s="0"/>
-      <c r="G2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H2" s="0"/>
-      <c r="I2" t="n" s="2">
-        <v>46006.0</v>
-      </c>
-      <c r="J2" s="0"/>
-      <c r="K2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0"/>
-      <c r="B3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C3" s="0"/>
-      <c r="D3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E3" t="n" s="2">
-        <v>45985.61516203704</v>
-      </c>
-      <c r="F3" s="0"/>
-      <c r="G3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H3" s="0"/>
-      <c r="I3" t="n" s="2">
-        <v>46006.0</v>
-      </c>
-      <c r="J3" s="0"/>
-      <c r="K3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="3.9296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.53515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.76953125" customWidth="true" bestFit="true"/>
@@ -393,7 +334,479 @@
     <col min="10" max="10" width="14.28125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.19921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="57.96484375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="102.40234375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0"/>
+      <c r="B2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n" s="2">
+        <v>45978.848344907405</v>
+      </c>
+      <c r="F2" s="0"/>
+      <c r="G2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0"/>
+      <c r="I2" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="J2" s="0"/>
+      <c r="K2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0"/>
+      <c r="B3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n" s="2">
+        <v>45985.61516203704</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H3" s="0"/>
+      <c r="I3" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J3" s="0"/>
+      <c r="K3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0"/>
+      <c r="B4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" t="n" s="0">
+        <v>3003.0</v>
+      </c>
+      <c r="E4" t="n" s="2">
+        <v>45992.0</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="J4" s="0"/>
+      <c r="K4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0"/>
+      <c r="B5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E5" t="n" s="2">
+        <v>45995.27034722222</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="H5" s="0"/>
+      <c r="I5" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J5" s="0"/>
+      <c r="K5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0"/>
+      <c r="B6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n" s="2">
+        <v>45999.43809027778</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="I6" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J6" s="0"/>
+      <c r="K6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0"/>
+      <c r="B7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E7" t="n" s="2">
+        <v>46001.59295138889</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="I7" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="J7" s="0"/>
+      <c r="K7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0"/>
+      <c r="B8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n" s="2">
+        <v>46003.596863425926</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J8" s="0"/>
+      <c r="K8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0"/>
+      <c r="B9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E9" t="n" s="2">
+        <v>46005.59075231481</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H9" s="0"/>
+      <c r="I9" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J9" s="0"/>
+      <c r="K9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0"/>
+      <c r="B10" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E10" t="n" s="2">
+        <v>46005.767430555556</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="I10" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J10" s="0"/>
+      <c r="K10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0"/>
+      <c r="B11" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E11" t="n" s="2">
+        <v>46006.18958333333</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H11" s="0"/>
+      <c r="I11" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J11" s="0"/>
+      <c r="K11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0"/>
+      <c r="B12" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E12" t="n" s="2">
+        <v>46006.4690625</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H12" s="0"/>
+      <c r="I12" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J12" s="0"/>
+      <c r="K12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0"/>
+      <c r="B13" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n" s="2">
+        <v>46006.585335648146</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H13" s="0"/>
+      <c r="I13" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J13" s="0"/>
+      <c r="K13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0"/>
+      <c r="B14" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E14" t="n" s="2">
+        <v>46006.66722222222</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H14" s="0"/>
+      <c r="I14" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J14" s="0"/>
+      <c r="K14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="2.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.53515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.68359375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="19.13671875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.5546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.36328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="14.28125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.19921875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="73.93359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -440,49 +853,49 @@
     <row r="2">
       <c r="A2" s="0"/>
       <c r="B2" t="s" s="0">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>45995.27034722222</v>
+        <v>46006.0</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" t="n" s="4">
-        <v>46006.0</v>
+        <v>46007.0</v>
       </c>
       <c r="J2" s="0"/>
       <c r="K2" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0"/>
       <c r="B3" t="s" s="0">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n" s="4">
-        <v>45999.43809027778</v>
+        <v>46006.0</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" t="s" s="0">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" t="n" s="4">
@@ -490,30 +903,30 @@
       </c>
       <c r="J3" s="0"/>
       <c r="K3" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0"/>
       <c r="B4" t="s" s="0">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n" s="4">
-        <v>46003.596863425926</v>
+        <v>46006.0</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" t="s" s="0">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" t="n" s="4">
@@ -521,201 +934,168 @@
       </c>
       <c r="J4" s="0"/>
       <c r="K4" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s" s="0">
         <v>17</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0"/>
       <c r="B5" t="s" s="0">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E5" t="n" s="4">
-        <v>46005.59075231481</v>
+        <v>46007.0</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" t="s" s="0">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" t="n" s="4">
-        <v>46006.0</v>
+        <v>46007.0</v>
       </c>
       <c r="J5" s="0"/>
       <c r="K5" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0"/>
       <c r="B6" t="s" s="0">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n" s="4">
-        <v>46005.767430555556</v>
+        <v>46007.0</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" t="s" s="0">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H6" s="0"/>
       <c r="I6" t="n" s="4">
-        <v>46006.0</v>
+        <v>46007.0</v>
       </c>
       <c r="J6" s="0"/>
       <c r="K6" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s" s="0">
         <v>17</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0"/>
       <c r="B7" t="s" s="0">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s" s="0">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n" s="4">
-        <v>46006.18958333333</v>
+        <v>46007.0</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" t="s" s="0">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="H7" s="0"/>
       <c r="I7" t="n" s="4">
-        <v>46006.0</v>
+        <v>46007.0</v>
       </c>
       <c r="J7" s="0"/>
       <c r="K7" t="s" s="0">
         <v>20</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0"/>
       <c r="B8" t="s" s="0">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" t="s" s="0">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n" s="4">
-        <v>46006.4690625</v>
+        <v>46007.0</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" t="n" s="4">
-        <v>46006.0</v>
+        <v>46007.0</v>
       </c>
       <c r="J8" s="0"/>
       <c r="K8" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0"/>
       <c r="B9" t="s" s="0">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" t="s" s="0">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n" s="4">
-        <v>46006.585335648146</v>
+        <v>46007.0</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" t="s" s="0">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="H9" s="0"/>
       <c r="I9" t="n" s="4">
-        <v>46006.0</v>
+        <v>46007.0</v>
       </c>
       <c r="J9" s="0"/>
       <c r="K9" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>111.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C10" s="0"/>
-      <c r="D10" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="E10" t="n" s="4">
-        <v>46006.66722222222</v>
-      </c>
-      <c r="F10" s="0"/>
-      <c r="G10" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="H10" s="0"/>
-      <c r="I10" t="n" s="4">
-        <v>46006.0</v>
-      </c>
-      <c r="J10" s="0"/>
-      <c r="K10" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="M10" t="s" s="0">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Migrated_Snapshot.xlsx
+++ b/Migrated_Snapshot.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -54,57 +54,348 @@
     <t>Description</t>
   </si>
   <si>
-    <t>INC44298724</t>
+    <t>INC44051042</t>
+  </si>
+  <si>
+    <t>STSPL IN</t>
+  </si>
+  <si>
+    <t>05.11.25</t>
+  </si>
+  <si>
+    <t>T, Purushothama</t>
+  </si>
+  <si>
+    <t>3 - Medium</t>
+  </si>
+  <si>
+    <t>Confirm_Closed</t>
+  </si>
+  <si>
+    <t>#HC Image in VIM Workplace not showing up</t>
+  </si>
+  <si>
+    <t>INC44013959</t>
+  </si>
+  <si>
+    <t>BUZ</t>
+  </si>
+  <si>
+    <t>Bara, Claudia Mihaela</t>
+  </si>
+  <si>
+    <t>2 - High</t>
+  </si>
+  <si>
+    <t>hc:workflow invoices cannot be forwarded</t>
+  </si>
+  <si>
+    <t>INC44053998</t>
   </si>
   <si>
     <t>gen</t>
   </si>
   <si>
+    <t>Šplíchalová, Ilona</t>
+  </si>
+  <si>
+    <t>4 - Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forward issue </t>
+  </si>
+  <si>
+    <t>INC44138662</t>
+  </si>
+  <si>
     <t>Cajtchamlová, Martina</t>
   </si>
   <si>
-    <t>4 - Low</t>
-  </si>
-  <si>
-    <t>Confirm_Closed</t>
-  </si>
-  <si>
-    <t>VIM_status Blocked vs. Awaiting approval</t>
+    <t>In Process</t>
+  </si>
+  <si>
+    <t>issue after R1421 - system still reports, that user is processing PO</t>
+  </si>
+  <si>
+    <t>INC44198641</t>
+  </si>
+  <si>
+    <t>VIM_close the process and move documents to "My Completed" tab</t>
+  </si>
+  <si>
+    <t>INC44236544</t>
+  </si>
+  <si>
+    <t>3366 WSTECH</t>
+  </si>
+  <si>
+    <t>Rupp, Christine</t>
+  </si>
+  <si>
+    <t>Please introduce rounding acceptance for WSTECH - 3366</t>
+  </si>
+  <si>
+    <t>INC44247780</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>Cífka, Zdeněk</t>
+  </si>
+  <si>
+    <t>S4P / 3003 - Payment block Z is automatically entered in RD documents after making any change through the transaction FBD3</t>
+  </si>
+  <si>
+    <t>INC44262323</t>
+  </si>
+  <si>
+    <t>Posted invoices are not being directed to the correct approvers</t>
+  </si>
+  <si>
+    <t>INC44276638</t>
+  </si>
+  <si>
+    <t>Foghis, Loredana Daniela</t>
+  </si>
+  <si>
+    <t>cannot approve doc ID 26179</t>
+  </si>
+  <si>
+    <t>INC44300907</t>
+  </si>
+  <si>
+    <t>Integration User</t>
+  </si>
+  <si>
+    <t>Document approval not in my inbox</t>
+  </si>
+  <si>
+    <t>INC44300914</t>
+  </si>
+  <si>
+    <t>Geis, Martina</t>
+  </si>
+  <si>
+    <t>Cannot forward invoice to several colleagues</t>
+  </si>
+  <si>
+    <t>INC44320339</t>
+  </si>
+  <si>
+    <t>SMO DK</t>
+  </si>
+  <si>
+    <t>Piedade, Pedro</t>
+  </si>
+  <si>
+    <t>NPO Credit notes not able to post</t>
+  </si>
+  <si>
+    <t>INC44329030</t>
+  </si>
+  <si>
+    <t>Høy, Niels-Erik</t>
+  </si>
+  <si>
+    <t>My Inbox invoices</t>
+  </si>
+  <si>
+    <t>INC44335466</t>
+  </si>
+  <si>
+    <t>Nemec, Martina</t>
+  </si>
+  <si>
+    <t>Add 3 suppliers to VIM VAUD table to stop autoposting</t>
+  </si>
+  <si>
+    <t>INC44338252</t>
+  </si>
+  <si>
+    <t>VIM_please remove R block if possible and close the process</t>
+  </si>
+  <si>
+    <t>INC44338461</t>
+  </si>
+  <si>
+    <t>VIM_no agent assigned to uncomplete documents</t>
+  </si>
+  <si>
+    <t>INC44338463</t>
+  </si>
+  <si>
+    <t>VIM_uncompleted documents moved to All completed</t>
+  </si>
+  <si>
+    <t>INC44339355</t>
+  </si>
+  <si>
+    <t>V, Anand</t>
+  </si>
+  <si>
+    <t>#HC VIM OCR Access Required</t>
+  </si>
+  <si>
+    <t>INC44343292</t>
+  </si>
+  <si>
+    <t>Invoices are not available in App "approval invoices" only in "my inbox"</t>
+  </si>
+  <si>
+    <t>INC44344891</t>
+  </si>
+  <si>
+    <t>Missing in Exception app + no authorisation</t>
+  </si>
+  <si>
+    <t>INC44345852</t>
+  </si>
+  <si>
+    <t>Kostovski, Simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval cannot be started </t>
+  </si>
+  <si>
+    <t>INC44345935</t>
+  </si>
+  <si>
+    <t>VIM_DP 16243 - close the process</t>
+  </si>
+  <si>
+    <t>INC44345961</t>
+  </si>
+  <si>
+    <t>Customs invoices approval did not start, even though the Approvers are set in the SATtable</t>
+  </si>
+  <si>
+    <t>INC44346255</t>
+  </si>
+  <si>
+    <t>Please remove payment blocks, items cannot be paid</t>
   </si>
   <si>
     <t>INC44351758</t>
   </si>
   <si>
-    <t>SMO DK</t>
-  </si>
-  <si>
-    <t>Piedade, Pedro</t>
-  </si>
-  <si>
-    <t>3 - Medium</t>
-  </si>
-  <si>
     <t>PDF Invoices don't appear in VIM Documents</t>
   </si>
   <si>
+    <t>INC44352220</t>
+  </si>
+  <si>
+    <t>Document is with error in Analytics but I can't see it in Workplace</t>
+  </si>
+  <si>
+    <t>INC44352828</t>
+  </si>
+  <si>
+    <t>Helici, Lucica</t>
+  </si>
+  <si>
+    <t>PDF not available for invoice to be approved</t>
+  </si>
+  <si>
+    <t>INC44354118</t>
+  </si>
+  <si>
+    <t>Add one supplier into VIM VAUD table</t>
+  </si>
+  <si>
+    <t>INC44355232</t>
+  </si>
+  <si>
+    <t>VIM_close process and remove R block</t>
+  </si>
+  <si>
+    <t>INC44359287</t>
+  </si>
+  <si>
+    <t>add vendor 1000034952 to the table to allow posting with multiple POs</t>
+  </si>
+  <si>
+    <t>INC44359840</t>
+  </si>
+  <si>
+    <t>remove payment block and close the process</t>
+  </si>
+  <si>
+    <t>INC44362368</t>
+  </si>
+  <si>
+    <t>Jensen, Bettina W.</t>
+  </si>
+  <si>
+    <t>INC44207813 closed, documentation attached to this inc</t>
+  </si>
+  <si>
+    <t>INC44363749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot work on the VIM item altough it says blocked </t>
+  </si>
+  <si>
+    <t>INC44368543</t>
+  </si>
+  <si>
+    <t>no agent assigned to DP 33621</t>
+  </si>
+  <si>
     <t>INC44369987</t>
   </si>
   <si>
-    <t>BUZ</t>
-  </si>
-  <si>
     <t>Maresi Alina Corina</t>
   </si>
   <si>
     <t>in the App "Approval invoice management" - the invoice is not visible</t>
   </si>
   <si>
+    <t>INC44370593</t>
+  </si>
+  <si>
+    <t>Ilic, Isabelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incoming Invoices FX Exchange Rate Issue - System using wrong date for whole 3014 </t>
+  </si>
+  <si>
+    <t>INC44371083</t>
+  </si>
+  <si>
+    <t>VIM_Status Cancelled vs. different statuses</t>
+  </si>
+  <si>
+    <t>INC44371201</t>
+  </si>
+  <si>
+    <t>VIM_Status Blocked vs. Posted</t>
+  </si>
+  <si>
+    <t>INC44371312</t>
+  </si>
+  <si>
+    <t>Hide the "Rescan" button in VIM Indexing screen</t>
+  </si>
+  <si>
+    <t>INC44371487</t>
+  </si>
+  <si>
+    <t>change predefined reversal reason in VIM</t>
+  </si>
+  <si>
+    <t>INC44372855</t>
+  </si>
+  <si>
+    <t>D R, Thirumalegowda</t>
+  </si>
+  <si>
+    <t># HC VIM Workplace, the GST Registration Number is getting updated, and the Business Place is auto-changing unexpectedly</t>
+  </si>
+  <si>
     <t>INC44377414</t>
   </si>
   <si>
-    <t>SIB</t>
-  </si>
-  <si>
     <t>Cedidlo, Jiří</t>
   </si>
   <si>
@@ -118,9 +409,6 @@
   </si>
   <si>
     <t>INC44361127</t>
-  </si>
-  <si>
-    <t>3366 WSTECH</t>
   </si>
   <si>
     <t>Munk, Monika</t>
@@ -128,21 +416,6 @@
   <si>
     <t>Multiple occurences of this issue. Not VIM-related.
 AUN 3366 - in VIM pdf-Belege Invoice nicht sichtbar wg. fehlerhafter Download-Anzeige</t>
-  </si>
-  <si>
-    <t>INC44383765</t>
-  </si>
-  <si>
-    <t>STSPL IN</t>
-  </si>
-  <si>
-    <t>J S, Vijayalakshmi</t>
-  </si>
-  <si>
-    <t>In Process</t>
-  </si>
-  <si>
-    <t>#HC invoices need to move to VIM</t>
   </si>
 </sst>
 </file>
@@ -215,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -224,16 +497,16 @@
     <col min="1" max="1" width="2.71875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.53515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.9296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.24609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.68359375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="19.13671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="20.984375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.5546875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.36328125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="14.28125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.19921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="13.6953125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="58.2265625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="102.40234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -286,150 +559,1328 @@
       <c r="D2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E2" t="n" s="2">
-        <v>45999.307222222225</v>
+      <c r="E2" t="s" s="0">
+        <v>15</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" t="n" s="2">
-        <v>46013.0</v>
+        <v>46011.0</v>
       </c>
       <c r="J2" s="0"/>
       <c r="K2" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0"/>
       <c r="B3" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n" s="2">
-        <v>46007.0</v>
+        <v>45966.0</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" t="n" s="2">
-        <v>46013.0</v>
+        <v>46010.0</v>
       </c>
       <c r="J3" s="0"/>
       <c r="K3" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0"/>
       <c r="B4" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n" s="2">
-        <v>46009.0</v>
+        <v>26</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>15</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" t="n" s="2">
-        <v>46014.0</v>
+        <v>46010.0</v>
       </c>
       <c r="J4" s="0"/>
       <c r="K4" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0"/>
       <c r="B5" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n" s="2">
-        <v>46010.0</v>
+        <v>45978.848344907405</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" t="n" s="2">
-        <v>46013.0</v>
+        <v>46008.0</v>
       </c>
       <c r="J5" s="0"/>
       <c r="K5" t="s" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0"/>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n" s="2">
-        <v>46012.0</v>
+        <v>45985.61516203704</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" t="s" s="0">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H6" s="0"/>
       <c r="I6" t="n" s="2">
-        <v>46013.0</v>
+        <v>46006.0</v>
       </c>
       <c r="J6" s="0"/>
       <c r="K6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0"/>
+      <c r="B7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="E7" t="n" s="2">
+        <v>45989.423368055555</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="I7" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="J7" s="0"/>
+      <c r="K7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0"/>
+      <c r="B8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E8" t="n" s="2">
+        <v>45992.0</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="J8" s="0"/>
+      <c r="K8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0"/>
+      <c r="B9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n" s="2">
+        <v>45993.0</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="H9" s="0"/>
+      <c r="I9" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="J9" s="0"/>
+      <c r="K9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0"/>
+      <c r="B10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E10" t="n" s="2">
+        <v>45995.27034722222</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="I10" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J10" s="0"/>
+      <c r="K10" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="M6" t="s" s="0">
-        <v>33</v>
+      <c r="L10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0"/>
+      <c r="B11" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n" s="2">
+        <v>45999.43809027778</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H11" s="0"/>
+      <c r="I11" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J11" s="0"/>
+      <c r="K11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0"/>
+      <c r="B12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E12" t="n" s="2">
+        <v>45999.4383912037</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H12" s="0"/>
+      <c r="I12" t="n" s="2">
+        <v>46010.0</v>
+      </c>
+      <c r="J12" s="0"/>
+      <c r="K12" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0"/>
+      <c r="B13" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E13" t="n" s="2">
+        <v>46001.59295138889</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H13" s="0"/>
+      <c r="I13" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="J13" s="0"/>
+      <c r="K13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0"/>
+      <c r="B14" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E14" t="n" s="2">
+        <v>46002.0</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H14" s="0"/>
+      <c r="I14" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="J14" s="0"/>
+      <c r="K14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0"/>
+      <c r="B15" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C15" s="0"/>
+      <c r="D15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E15" t="n" s="2">
+        <v>46003.596863425926</v>
+      </c>
+      <c r="F15" s="0"/>
+      <c r="G15" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H15" s="0"/>
+      <c r="I15" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J15" s="0"/>
+      <c r="K15" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0"/>
+      <c r="B16" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E16" t="n" s="2">
+        <v>46005.59075231481</v>
+      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H16" s="0"/>
+      <c r="I16" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J16" s="0"/>
+      <c r="K16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0"/>
+      <c r="B17" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E17" t="n" s="2">
+        <v>46005.76462962963</v>
+      </c>
+      <c r="F17" s="0"/>
+      <c r="G17" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H17" s="0"/>
+      <c r="I17" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="J17" s="0"/>
+      <c r="K17" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0"/>
+      <c r="B18" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E18" t="n" s="2">
+        <v>46005.767430555556</v>
+      </c>
+      <c r="F18" s="0"/>
+      <c r="G18" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H18" s="0"/>
+      <c r="I18" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J18" s="0"/>
+      <c r="K18" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0"/>
+      <c r="B19" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E19" t="n" s="2">
+        <v>46006.18958333333</v>
+      </c>
+      <c r="F19" s="0"/>
+      <c r="G19" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="H19" s="0"/>
+      <c r="I19" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J19" s="0"/>
+      <c r="K19" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0"/>
+      <c r="B20" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C20" s="0"/>
+      <c r="D20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E20" t="n" s="2">
+        <v>46006.4690625</v>
+      </c>
+      <c r="F20" s="0"/>
+      <c r="G20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H20" s="0"/>
+      <c r="I20" t="n" s="2">
+        <v>46010.0</v>
+      </c>
+      <c r="J20" s="0"/>
+      <c r="K20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0"/>
+      <c r="B21" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C21" s="0"/>
+      <c r="D21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E21" t="n" s="2">
+        <v>46006.585335648146</v>
+      </c>
+      <c r="F21" s="0"/>
+      <c r="G21" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H21" s="0"/>
+      <c r="I21" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="J21" s="0"/>
+      <c r="K21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0"/>
+      <c r="B22" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C22" s="0"/>
+      <c r="D22" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E22" t="n" s="2">
+        <v>46006.66722222222</v>
+      </c>
+      <c r="F22" s="0"/>
+      <c r="G22" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H22" s="0"/>
+      <c r="I22" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="J22" s="0"/>
+      <c r="K22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0"/>
+      <c r="B23" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C23" s="0"/>
+      <c r="D23" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="F23" s="0"/>
+      <c r="G23" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H23" s="0"/>
+      <c r="I23" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="J23" s="0"/>
+      <c r="K23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0"/>
+      <c r="B24" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C24" s="0"/>
+      <c r="D24" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E24" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="F24" s="0"/>
+      <c r="G24" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H24" s="0"/>
+      <c r="I24" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J24" s="0"/>
+      <c r="K24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0"/>
+      <c r="B25" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C25" s="0"/>
+      <c r="D25" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E25" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="F25" s="0"/>
+      <c r="G25" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H25" s="0"/>
+      <c r="I25" t="n" s="2">
+        <v>46006.0</v>
+      </c>
+      <c r="J25" s="0"/>
+      <c r="K25" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0"/>
+      <c r="B26" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C26" s="0"/>
+      <c r="D26" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E26" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="F26" s="0"/>
+      <c r="G26" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H26" s="0"/>
+      <c r="I26" t="n" s="2">
+        <v>46013.0</v>
+      </c>
+      <c r="J26" s="0"/>
+      <c r="K26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0"/>
+      <c r="B27" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C27" s="0"/>
+      <c r="D27" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E27" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="F27" s="0"/>
+      <c r="G27" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H27" s="0"/>
+      <c r="I27" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="J27" s="0"/>
+      <c r="K27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0"/>
+      <c r="B28" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C28" s="0"/>
+      <c r="D28" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E28" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="F28" s="0"/>
+      <c r="G28" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="H28" s="0"/>
+      <c r="I28" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="J28" s="0"/>
+      <c r="K28" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0"/>
+      <c r="B29" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C29" s="0"/>
+      <c r="D29" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E29" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="F29" s="0"/>
+      <c r="G29" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H29" s="0"/>
+      <c r="I29" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="J29" s="0"/>
+      <c r="K29" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0"/>
+      <c r="B30" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C30" s="0"/>
+      <c r="D30" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E30" t="n" s="2">
+        <v>46007.0</v>
+      </c>
+      <c r="F30" s="0"/>
+      <c r="G30" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H30" s="0"/>
+      <c r="I30" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="J30" s="0"/>
+      <c r="K30" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0"/>
+      <c r="B31" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C31" s="0"/>
+      <c r="D31" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E31" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="F31" s="0"/>
+      <c r="G31" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H31" s="0"/>
+      <c r="I31" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="J31" s="0"/>
+      <c r="K31" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M31" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0"/>
+      <c r="B32" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C32" s="0"/>
+      <c r="D32" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E32" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="F32" s="0"/>
+      <c r="G32" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H32" s="0"/>
+      <c r="I32" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="J32" s="0"/>
+      <c r="K32" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0"/>
+      <c r="B33" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C33" s="0"/>
+      <c r="D33" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E33" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="F33" s="0"/>
+      <c r="G33" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="H33" s="0"/>
+      <c r="I33" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="J33" s="0"/>
+      <c r="K33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L33" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0"/>
+      <c r="B34" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0"/>
+      <c r="D34" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E34" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="F34" s="0"/>
+      <c r="G34" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H34" s="0"/>
+      <c r="I34" t="n" s="2">
+        <v>46008.0</v>
+      </c>
+      <c r="J34" s="0"/>
+      <c r="K34" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L34" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M34" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0"/>
+      <c r="B35" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C35" s="0"/>
+      <c r="D35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E35" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="F35" s="0"/>
+      <c r="G35" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H35" s="0"/>
+      <c r="I35" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="J35" s="0"/>
+      <c r="K35" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L35" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0"/>
+      <c r="B36" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C36" s="0"/>
+      <c r="D36" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E36" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="F36" s="0"/>
+      <c r="G36" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H36" s="0"/>
+      <c r="I36" t="n" s="2">
+        <v>46014.0</v>
+      </c>
+      <c r="J36" s="0"/>
+      <c r="K36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L36" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M36" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0"/>
+      <c r="B37" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C37" s="0"/>
+      <c r="D37" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E37" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="F37" s="0"/>
+      <c r="G37" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="H37" s="0"/>
+      <c r="I37" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="J37" s="0"/>
+      <c r="K37" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L37" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0"/>
+      <c r="B38" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C38" s="0"/>
+      <c r="D38" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E38" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="F38" s="0"/>
+      <c r="G38" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H38" s="0"/>
+      <c r="I38" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="J38" s="0"/>
+      <c r="K38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0"/>
+      <c r="B39" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C39" s="0"/>
+      <c r="D39" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E39" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="F39" s="0"/>
+      <c r="G39" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H39" s="0"/>
+      <c r="I39" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="J39" s="0"/>
+      <c r="K39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0"/>
+      <c r="B40" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C40" s="0"/>
+      <c r="D40" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E40" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="F40" s="0"/>
+      <c r="G40" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H40" s="0"/>
+      <c r="I40" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="J40" s="0"/>
+      <c r="K40" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M40" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0"/>
+      <c r="B41" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C41" s="0"/>
+      <c r="D41" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E41" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="F41" s="0"/>
+      <c r="G41" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H41" s="0"/>
+      <c r="I41" t="n" s="2">
+        <v>46009.0</v>
+      </c>
+      <c r="J41" s="0"/>
+      <c r="K41" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M41" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0"/>
+      <c r="B42" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C42" s="0"/>
+      <c r="D42" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E42" t="n" s="2">
+        <v>46010.0</v>
+      </c>
+      <c r="F42" s="0"/>
+      <c r="G42" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="H42" s="0"/>
+      <c r="I42" t="n" s="2">
+        <v>46010.0</v>
+      </c>
+      <c r="J42" s="0"/>
+      <c r="K42" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M42" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0"/>
+      <c r="B43" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C43" s="0"/>
+      <c r="D43" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E43" t="n" s="2">
+        <v>46010.0</v>
+      </c>
+      <c r="F43" s="0"/>
+      <c r="G43" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="H43" s="0"/>
+      <c r="I43" t="n" s="2">
+        <v>46013.0</v>
+      </c>
+      <c r="J43" s="0"/>
+      <c r="K43" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L43" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M43" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0"/>
+      <c r="B44" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C44" s="0"/>
+      <c r="D44" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E44" t="n" s="2">
+        <v>46012.0</v>
+      </c>
+      <c r="F44" s="0"/>
+      <c r="G44" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H44" s="0"/>
+      <c r="I44" t="n" s="2">
+        <v>46013.0</v>
+      </c>
+      <c r="J44" s="0"/>
+      <c r="K44" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="M44" t="s" s="0">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -439,7 +1890,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,7 +1902,7 @@
     <col min="4" max="4" width="12.24609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="10.453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.68359375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="12.5859375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.5546875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.36328125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="14.28125" customWidth="true" bestFit="true"/>
@@ -504,18 +1955,18 @@
     <row r="2">
       <c r="A2" s="0"/>
       <c r="B2" t="s" s="0">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>46008.0</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" t="n" s="4">
@@ -523,44 +1974,13 @@
       </c>
       <c r="J2" s="0"/>
       <c r="K2" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0"/>
-      <c r="B3" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C3" s="0"/>
-      <c r="D3" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E3" t="n" s="4">
-        <v>46013.0</v>
-      </c>
-      <c r="F3" s="0"/>
-      <c r="G3" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="H3" s="0"/>
-      <c r="I3" t="n" s="4">
-        <v>46013.0</v>
-      </c>
-      <c r="J3" s="0"/>
-      <c r="K3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Migrated_Snapshot.xlsx
+++ b/Migrated_Snapshot.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>INC44351758</t>
+  </si>
+  <si>
+    <t>In Process XXflagXX</t>
   </si>
   <si>
     <t>PDF Invoices don't appear in VIM Documents</t>
@@ -505,7 +508,7 @@
     <col min="9" max="9" width="14.36328125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="14.28125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.19921875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6953125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="16.48828125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="102.40234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1319,16 +1322,16 @@
         <v>17</v>
       </c>
       <c r="L26" t="s" s="0">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="M26" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0"/>
       <c r="B27" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="0"/>
       <c r="D27" t="s" s="0">
@@ -1353,13 +1356,13 @@
         <v>32</v>
       </c>
       <c r="M27" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0"/>
       <c r="B28" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="0"/>
       <c r="D28" t="s" s="0">
@@ -1370,7 +1373,7 @@
       </c>
       <c r="F28" s="0"/>
       <c r="G28" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" s="0"/>
       <c r="I28" t="n" s="2">
@@ -1384,13 +1387,13 @@
         <v>32</v>
       </c>
       <c r="M28" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0"/>
       <c r="B29" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" s="0"/>
       <c r="D29" t="s" s="0">
@@ -1415,13 +1418,13 @@
         <v>18</v>
       </c>
       <c r="M29" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0"/>
       <c r="B30" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" t="s" s="0">
@@ -1446,13 +1449,13 @@
         <v>18</v>
       </c>
       <c r="M30" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0"/>
       <c r="B31" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" t="s" s="0">
@@ -1477,13 +1480,13 @@
         <v>18</v>
       </c>
       <c r="M31" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0"/>
       <c r="B32" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C32" s="0"/>
       <c r="D32" t="s" s="0">
@@ -1508,13 +1511,13 @@
         <v>18</v>
       </c>
       <c r="M32" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0"/>
       <c r="B33" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" s="0"/>
       <c r="D33" t="s" s="0">
@@ -1525,7 +1528,7 @@
       </c>
       <c r="F33" s="0"/>
       <c r="G33" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H33" s="0"/>
       <c r="I33" t="n" s="2">
@@ -1539,13 +1542,13 @@
         <v>32</v>
       </c>
       <c r="M33" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0"/>
       <c r="B34" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" t="s" s="0">
@@ -1570,13 +1573,13 @@
         <v>18</v>
       </c>
       <c r="M34" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0"/>
       <c r="B35" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" s="0"/>
       <c r="D35" t="s" s="0">
@@ -1601,13 +1604,13 @@
         <v>32</v>
       </c>
       <c r="M35" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0"/>
       <c r="B36" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36" s="0"/>
       <c r="D36" t="s" s="0">
@@ -1618,7 +1621,7 @@
       </c>
       <c r="F36" s="0"/>
       <c r="G36" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H36" s="0"/>
       <c r="I36" t="n" s="2">
@@ -1629,16 +1632,16 @@
         <v>17</v>
       </c>
       <c r="L36" t="s" s="0">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="M36" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0"/>
       <c r="B37" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="0"/>
       <c r="D37" t="s" s="0">
@@ -1649,7 +1652,7 @@
       </c>
       <c r="F37" s="0"/>
       <c r="G37" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H37" s="0"/>
       <c r="I37" t="n" s="2">
@@ -1663,13 +1666,13 @@
         <v>32</v>
       </c>
       <c r="M37" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0"/>
       <c r="B38" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C38" s="0"/>
       <c r="D38" t="s" s="0">
@@ -1694,13 +1697,13 @@
         <v>32</v>
       </c>
       <c r="M38" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0"/>
       <c r="B39" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" t="s" s="0">
@@ -1725,13 +1728,13 @@
         <v>32</v>
       </c>
       <c r="M39" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0"/>
       <c r="B40" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" t="s" s="0">
@@ -1756,13 +1759,13 @@
         <v>32</v>
       </c>
       <c r="M40" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0"/>
       <c r="B41" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C41" s="0"/>
       <c r="D41" t="s" s="0">
@@ -1787,13 +1790,13 @@
         <v>32</v>
       </c>
       <c r="M41" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0"/>
       <c r="B42" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" t="s" s="0">
@@ -1804,7 +1807,7 @@
       </c>
       <c r="F42" s="0"/>
       <c r="G42" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" s="0"/>
       <c r="I42" t="n" s="2">
@@ -1818,13 +1821,13 @@
         <v>32</v>
       </c>
       <c r="M42" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0"/>
       <c r="B43" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" t="s" s="0">
@@ -1835,7 +1838,7 @@
       </c>
       <c r="F43" s="0"/>
       <c r="G43" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H43" s="0"/>
       <c r="I43" t="n" s="2">
@@ -1846,16 +1849,16 @@
         <v>28</v>
       </c>
       <c r="L43" t="s" s="0">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="M43" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0"/>
       <c r="B44" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C44" s="0"/>
       <c r="D44" t="s" s="0">
@@ -1877,10 +1880,10 @@
         <v>28</v>
       </c>
       <c r="L44" t="s" s="0">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="M44" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1910,7 @@
     <col min="9" max="9" width="14.36328125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="14.28125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.19921875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6953125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="16.48828125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="71.3515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1955,7 +1958,7 @@
     <row r="2">
       <c r="A2" s="0"/>
       <c r="B2" t="s" s="0">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" t="s" s="0">
@@ -1966,7 +1969,7 @@
       </c>
       <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" t="n" s="4">
@@ -1977,10 +1980,10 @@
         <v>17</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
